--- a/output.xlsx
+++ b/output.xlsx
@@ -441,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,87 +451,126 @@
     <col min="2" max="2" width="52.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B1">
+  <conditionalFormatting sqref="A1:C1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>-1</formula>
     </cfRule>

--- a/output.xlsx
+++ b/output.xlsx
@@ -441,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,126 +451,87 @@
     <col min="2" max="2" width="52.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>0</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>6</v>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C1">
+  <conditionalFormatting sqref="A1:B1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>-1</formula>
     </cfRule>
